--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hcrt-Hcrtr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hcrt-Hcrtr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,19 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Hcrt</t>
+  </si>
+  <si>
+    <t>Hcrtr1</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Hcrt</t>
-  </si>
-  <si>
-    <t>Hcrtr1</t>
   </si>
 </sst>
 </file>
@@ -528,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.399539</v>
+        <v>0.39064</v>
       </c>
       <c r="H2">
-        <v>1.198617</v>
+        <v>1.17192</v>
       </c>
       <c r="I2">
-        <v>0.719860690374207</v>
+        <v>0.5296693860025763</v>
       </c>
       <c r="J2">
-        <v>0.7198606903742069</v>
+        <v>0.5296693860025762</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1437336666666667</v>
+        <v>0.378587</v>
       </c>
       <c r="N2">
-        <v>0.431201</v>
+        <v>1.135761</v>
       </c>
       <c r="O2">
-        <v>0.3757621758601248</v>
+        <v>0.9725321726710616</v>
       </c>
       <c r="P2">
-        <v>0.3757621758601248</v>
+        <v>0.9725321726710616</v>
       </c>
       <c r="Q2">
-        <v>0.05742720544633334</v>
+        <v>0.14789122568</v>
       </c>
       <c r="R2">
-        <v>0.516844849017</v>
+        <v>1.33102103112</v>
       </c>
       <c r="S2">
-        <v>0.2704964193311836</v>
+        <v>0.5151205187664327</v>
       </c>
       <c r="T2">
-        <v>0.2704964193311836</v>
+        <v>0.5151205187664326</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,55 +590,55 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.39064</v>
+      </c>
+      <c r="H3">
+        <v>1.17192</v>
+      </c>
+      <c r="I3">
+        <v>0.5296693860025763</v>
+      </c>
+      <c r="J3">
+        <v>0.5296693860025762</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G3">
-        <v>0.399539</v>
-      </c>
-      <c r="H3">
-        <v>1.198617</v>
-      </c>
-      <c r="I3">
-        <v>0.719860690374207</v>
-      </c>
-      <c r="J3">
-        <v>0.7198606903742069</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M3">
-        <v>0.2387786666666667</v>
+        <v>0.01069266666666667</v>
       </c>
       <c r="N3">
-        <v>0.7163360000000001</v>
+        <v>0.032078</v>
       </c>
       <c r="O3">
-        <v>0.6242378241398753</v>
+        <v>0.02746782732893832</v>
       </c>
       <c r="P3">
-        <v>0.6242378241398753</v>
+        <v>0.02746782732893832</v>
       </c>
       <c r="Q3">
-        <v>0.09540138970133336</v>
+        <v>0.004176983306666667</v>
       </c>
       <c r="R3">
-        <v>0.8586125073120001</v>
+        <v>0.03759284976</v>
       </c>
       <c r="S3">
-        <v>0.4493642710430234</v>
+        <v>0.01454886723614355</v>
       </c>
       <c r="T3">
-        <v>0.4493642710430233</v>
+        <v>0.01454886723614354</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,46 +661,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.02923533333333333</v>
+        <v>0.1178916666666667</v>
       </c>
       <c r="H4">
-        <v>0.08770599999999999</v>
+        <v>0.353675</v>
       </c>
       <c r="I4">
-        <v>0.05267412502071987</v>
+        <v>0.1598494949266683</v>
       </c>
       <c r="J4">
-        <v>0.05267412502071987</v>
+        <v>0.1598494949266683</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1437336666666667</v>
+        <v>0.378587</v>
       </c>
       <c r="N4">
-        <v>0.431201</v>
+        <v>1.135761</v>
       </c>
       <c r="O4">
-        <v>0.3757621758601248</v>
+        <v>0.9725321726710616</v>
       </c>
       <c r="P4">
-        <v>0.3757621758601248</v>
+        <v>0.9725321726710616</v>
       </c>
       <c r="Q4">
-        <v>0.004202101656222222</v>
+        <v>0.04463225240833334</v>
       </c>
       <c r="R4">
-        <v>0.037818914906</v>
+        <v>0.401690271675</v>
       </c>
       <c r="S4">
-        <v>0.01979294382931394</v>
+        <v>0.1554587766014046</v>
       </c>
       <c r="T4">
-        <v>0.01979294382931394</v>
+        <v>0.1554587766014046</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -720,46 +723,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.02923533333333333</v>
+        <v>0.1178916666666667</v>
       </c>
       <c r="H5">
-        <v>0.08770599999999999</v>
+        <v>0.353675</v>
       </c>
       <c r="I5">
-        <v>0.05267412502071987</v>
+        <v>0.1598494949266683</v>
       </c>
       <c r="J5">
-        <v>0.05267412502071987</v>
+        <v>0.1598494949266683</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.2387786666666667</v>
+        <v>0.01069266666666667</v>
       </c>
       <c r="N5">
-        <v>0.7163360000000001</v>
+        <v>0.032078</v>
       </c>
       <c r="O5">
-        <v>0.6242378241398753</v>
+        <v>0.02746782732893832</v>
       </c>
       <c r="P5">
-        <v>0.6242378241398753</v>
+        <v>0.02746782732893832</v>
       </c>
       <c r="Q5">
-        <v>0.006980773912888889</v>
+        <v>0.001260576294444445</v>
       </c>
       <c r="R5">
-        <v>0.06282696521600001</v>
+        <v>0.01134518665</v>
       </c>
       <c r="S5">
-        <v>0.03288118119140594</v>
+        <v>0.004390718325263728</v>
       </c>
       <c r="T5">
-        <v>0.03288118119140593</v>
+        <v>0.004390718325263727</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,46 +785,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1262483333333333</v>
+        <v>0.228985</v>
       </c>
       <c r="H6">
-        <v>0.378745</v>
+        <v>0.686955</v>
       </c>
       <c r="I6">
-        <v>0.2274651846050732</v>
+        <v>0.3104811190707554</v>
       </c>
       <c r="J6">
-        <v>0.2274651846050731</v>
+        <v>0.3104811190707554</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1437336666666667</v>
+        <v>0.378587</v>
       </c>
       <c r="N6">
-        <v>0.431201</v>
+        <v>1.135761</v>
       </c>
       <c r="O6">
-        <v>0.3757621758601248</v>
+        <v>0.9725321726710616</v>
       </c>
       <c r="P6">
-        <v>0.3757621758601248</v>
+        <v>0.9725321726710616</v>
       </c>
       <c r="Q6">
-        <v>0.01814613586055555</v>
+        <v>0.086690744195</v>
       </c>
       <c r="R6">
-        <v>0.163315222745</v>
+        <v>0.780216697755</v>
       </c>
       <c r="S6">
-        <v>0.08547281269962725</v>
+        <v>0.3019528773032243</v>
       </c>
       <c r="T6">
-        <v>0.08547281269962724</v>
+        <v>0.3019528773032243</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -844,46 +847,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.1262483333333333</v>
+        <v>0.228985</v>
       </c>
       <c r="H7">
-        <v>0.378745</v>
+        <v>0.686955</v>
       </c>
       <c r="I7">
-        <v>0.2274651846050732</v>
+        <v>0.3104811190707554</v>
       </c>
       <c r="J7">
-        <v>0.2274651846050731</v>
+        <v>0.3104811190707554</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2387786666666667</v>
+        <v>0.01069266666666667</v>
       </c>
       <c r="N7">
-        <v>0.7163360000000001</v>
+        <v>0.032078</v>
       </c>
       <c r="O7">
-        <v>0.6242378241398753</v>
+        <v>0.02746782732893832</v>
       </c>
       <c r="P7">
-        <v>0.6242378241398753</v>
+        <v>0.02746782732893832</v>
       </c>
       <c r="Q7">
-        <v>0.03014540870222222</v>
+        <v>0.002448460276666667</v>
       </c>
       <c r="R7">
-        <v>0.2713086783200001</v>
+        <v>0.02203614249</v>
       </c>
       <c r="S7">
-        <v>0.1419923719054459</v>
+        <v>0.00852824176753105</v>
       </c>
       <c r="T7">
-        <v>0.1419923719054459</v>
+        <v>0.00852824176753105</v>
       </c>
     </row>
   </sheetData>
